--- a/DateBase/orders/Dang Nguyen_2025-8-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-13.xlsx
@@ -1252,6 +1252,9 @@
       <c r="G2" t="str">
         <v>015121546553055551020101010201010101015101015155551010101015102010102051515151515151520611101515155515101038981431010105565151510935556555355</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
